--- a/company_tags/Uber_LC_High_Freq.xlsx
+++ b/company_tags/Uber_LC_High_Freq.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yifanfei/Desktop/Learning/LCEveryday/company_tags/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECA7177-BCFE-F44A-8C68-920D2DFEF726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CAF4F1-AFD6-364D-998B-BB336D61F185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38320" yWindow="3640" windowWidth="27640" windowHeight="16940" xr2:uid="{F1A56A89-FE77-6542-8F38-87F7D6E03EDF}"/>
+    <workbookView xWindow="37800" yWindow="2840" windowWidth="27640" windowHeight="16940" xr2:uid="{F1A56A89-FE77-6542-8F38-87F7D6E03EDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="179">
   <si>
     <t>Bus Routes</t>
   </si>
@@ -493,29 +493,229 @@
   </si>
   <si>
     <t>AC, binary search</t>
-  </si>
-  <si>
-    <t>AC, sort events by capital inc, with index i++
-hq stores all qualified profits, max heap
-w -= heappop(hq)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfs, isLeaf(grid) base case, split into 4 regions </t>
-  </si>
-  <si>
-    <t>AC, O(N^2)</t>
   </si>
   <si>
     <t>AC, bfs,  Set routes[nxt_bus] = [], stop2bus = {}, 
 O(n^2) n is # of bus
 O(stops)</t>
+  </si>
+  <si>
+    <t>envs.sort(key=lambda x:(x[0], -x[1])), then LIS O(nlogn)</t>
+  </si>
+  <si>
+    <t>2d DP</t>
+  </si>
+  <si>
+    <t>O(l)/O(mn)
+cnt++ when we meet a new island, cnt-- when we union</t>
+  </si>
+  <si>
+    <t>trie + dfs</t>
+  </si>
+  <si>
+    <t>prefix_prod, if num == 0: reset to [1], len &lt;= k return 0</t>
+  </si>
+  <si>
+    <t>AC, l, r = 1, max(ribbons) + 1</t>
+  </si>
+  <si>
+    <t>dp[a] = dp.get(a-difference, 0) + 1</t>
+  </si>
+  <si>
+    <t>AC, O(m + n)/O(1)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">find </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Free intervals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, only append when no overlap</t>
+    </r>
+  </si>
+  <si>
+    <t>AC, count odd, corner case len(s) &lt; k</t>
+  </si>
+  <si>
+    <t>AC, BFS, topo</t>
+  </si>
+  <si>
+    <t>BFS, encode it into str</t>
+  </si>
+  <si>
+    <t>if u not in graph or v not in graph:
+                return -1.0
+            if u == v:
+                return 1.0… path compression(memo)</t>
+  </si>
+  <si>
+    <t>backtracking, each time merge 2 nums, base case = 24</t>
+  </si>
+  <si>
+    <t>dp[i][j] = minimum health level required to reach the princess when entering (i, j), reverse check
+dp[m-1][n], dp[m][n-1] = 1, 1
+dp[i][j] = max(min(dp[i+1][j], dp[i][j+1]) - dungeon[i][j], 1)</t>
+  </si>
+  <si>
+    <t>dp[i][j] = at station i, the farthest distance someone can get by making j stops
+dp[i][j] = max( dp[i - 1][j - 1] + station i's fuel, dp[i - 1][j]) for j = 1 to j = I
+or heap + greedy, O(nlogn)</t>
+  </si>
+  <si>
+    <t>slow and fast ptr, return zip(*box[::-1])</t>
+  </si>
+  <si>
+    <t>dp(l, r, k) denote the maximum points we can get in boxes[l..r] if we have extra k boxes</t>
+  </si>
+  <si>
+    <t>AC, O(m^2n)/O(m^2n), O(V+E), V = n, E = mn, O(m) str compare</t>
+  </si>
+  <si>
+    <t># counter, O(max+len)/O(max+len), sort O(nlogn)</t>
+  </si>
+  <si>
+    <t>AC, O(n)/O(n)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AC, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> events by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>capital inc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, with index i++
+hq stores all qualified </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>profits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>max heap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+w -= heappop(hq) for _ in range(k)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dfs, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>isLeaf(grid)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> base case, split into 4 regions </t>
+    </r>
+  </si>
+  <si>
+    <t>AC, O(N^2), look at each cell just once</t>
+  </si>
+  <si>
+    <t>DFS, backtracking</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -541,6 +741,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="PingFang SC"/>
       <family val="2"/>
       <charset val="134"/>
@@ -913,7 +1120,7 @@
   <dimension ref="A1:F141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.35"/>
@@ -952,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -969,10 +1176,10 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -988,8 +1195,11 @@
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E4" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="115" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>174</v>
       </c>
@@ -1001,6 +1211,9 @@
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1016,12 +1229,15 @@
       <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1400</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3">
@@ -1029,13 +1245,19 @@
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>212</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
@@ -1043,6 +1265,9 @@
       </c>
       <c r="D8" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="69" x14ac:dyDescent="0.35">
@@ -1059,14 +1284,14 @@
         <v>1</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1743</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="3">
@@ -1074,13 +1299,16 @@
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>986</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="3">
@@ -1088,13 +1316,16 @@
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>773</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="3">
@@ -1103,12 +1334,15 @@
       <c r="D12" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E12" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="92" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>399</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="3">
@@ -1116,6 +1350,9 @@
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1132,7 +1369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="115" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>871</v>
       </c>
@@ -1144,6 +1381,9 @@
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1159,8 +1399,11 @@
       <c r="D16" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1052</v>
       </c>
@@ -1174,11 +1417,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>127</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="3">
@@ -1187,8 +1430,11 @@
       <c r="D18" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>655</v>
       </c>
@@ -1202,7 +1448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="69" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>305</v>
       </c>
@@ -1215,8 +1461,11 @@
       <c r="D20" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>679</v>
       </c>
@@ -1229,8 +1478,11 @@
       <c r="D21" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E21" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>68</v>
       </c>
@@ -1244,7 +1496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1335</v>
       </c>
@@ -1258,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>631</v>
       </c>
@@ -1272,11 +1524,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1352</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="3">
@@ -1285,8 +1537,11 @@
       <c r="D25" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E25" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>764</v>
       </c>
@@ -1300,7 +1555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>394</v>
       </c>
@@ -1314,7 +1569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1696</v>
       </c>
@@ -1328,11 +1583,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1768</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="3">
@@ -1342,7 +1597,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>418</v>
       </c>
@@ -1356,7 +1611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>420</v>
       </c>
@@ -1370,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1552</v>
       </c>
@@ -1464,7 +1719,7 @@
       <c r="A38" s="1">
         <v>354</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C38" s="3">
@@ -1472,13 +1727,16 @@
       </c>
       <c r="D38" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>428</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="3">
@@ -1492,7 +1750,7 @@
       <c r="A40" s="1">
         <v>56</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C40" s="3">
@@ -1520,7 +1778,7 @@
       <c r="A42" s="1">
         <v>297</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C42" s="3">
@@ -1543,12 +1801,15 @@
       <c r="D43" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E43" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>621</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="3">
@@ -1562,7 +1823,7 @@
       <c r="A45" s="1">
         <v>759</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C45" s="3">
@@ -1570,6 +1831,9 @@
       </c>
       <c r="D45" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -1618,7 +1882,7 @@
       <c r="A49" s="1">
         <v>126</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C49" s="3">
@@ -1660,7 +1924,7 @@
       <c r="A52" s="1">
         <v>64</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C52" s="3">
@@ -1668,6 +1932,9 @@
       </c>
       <c r="D52" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -1719,7 +1986,7 @@
       <c r="A56" s="1">
         <v>139</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C56" s="3">
@@ -1789,7 +2056,7 @@
       <c r="A61" s="1">
         <v>1891</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C61" s="3">
@@ -1797,6 +2064,9 @@
       </c>
       <c r="D61" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -1826,6 +2096,9 @@
       <c r="D63" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E63" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
@@ -2341,7 +2614,7 @@
       <c r="A100" s="1">
         <v>69</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C100" s="3">
@@ -2610,7 +2883,7 @@
       <c r="A119" s="1">
         <v>210</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C119" s="3">
